--- a/data-raw/Copy of analytes_complete_ref_unit_SKa.xlsx
+++ b/data-raw/Copy of analytes_complete_ref_unit_SKa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\r_projects\gramlyr\data-raw\D016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\r_projects\salivar\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02DB687-AD68-4F1D-B480-B51FAED656AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D0840-8035-40DB-98E2-F0C782073697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="analyte_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="273">
   <si>
     <t>analyte_short</t>
   </si>
@@ -766,9 +766,6 @@
     <t>UREUM</t>
   </si>
   <si>
-    <t>microgram/ml</t>
-  </si>
-  <si>
     <t>cytokine</t>
   </si>
   <si>
@@ -836,6 +833,12 @@
   </si>
   <si>
     <t>ng/ml</t>
+  </si>
+  <si>
+    <t>SLPI</t>
+  </si>
+  <si>
+    <t>MMP-9</t>
   </si>
 </sst>
 </file>
@@ -1206,11 +1209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1223,10 +1226,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1270,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
@@ -1314,7 +1317,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
         <v>217</v>
@@ -1358,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
         <v>218</v>
@@ -1402,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
@@ -1446,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
         <v>219</v>
@@ -1490,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -1534,7 +1537,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
@@ -1578,7 +1581,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
         <v>216</v>
@@ -1622,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
         <v>220</v>
@@ -1664,7 +1667,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
         <v>223</v>
@@ -1705,7 +1708,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
         <v>221</v>
@@ -1746,7 +1749,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" t="s">
         <v>101</v>
@@ -1787,7 +1790,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
         <v>222</v>
@@ -1828,7 +1831,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>224</v>
@@ -1869,7 +1872,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
         <v>225</v>
@@ -1910,7 +1913,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>128</v>
@@ -1948,7 +1951,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C18" t="s">
         <v>226</v>
@@ -1989,7 +1992,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" t="s">
         <v>227</v>
@@ -2031,7 +2034,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>131</v>
@@ -2069,7 +2072,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
         <v>228</v>
@@ -2110,7 +2113,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
         <v>229</v>
@@ -2152,7 +2155,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
         <v>102</v>
@@ -2193,7 +2196,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
@@ -2237,7 +2240,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
         <v>231</v>
@@ -2281,7 +2284,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
         <v>230</v>
@@ -2325,7 +2328,7 @@
         <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
         <v>104</v>
@@ -2369,7 +2372,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C28" t="s">
         <v>234</v>
@@ -2413,7 +2416,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
         <v>235</v>
@@ -2454,7 +2457,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30" t="s">
         <v>105</v>
@@ -2495,7 +2498,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C31" t="s">
         <v>236</v>
@@ -2536,7 +2539,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
         <v>106</v>
@@ -2577,13 +2580,13 @@
         <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" t="s">
         <v>237</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
@@ -2618,7 +2621,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
         <v>238</v>
@@ -2659,7 +2662,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C35" t="s">
         <v>239</v>
@@ -2700,7 +2703,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C36" t="s">
         <v>107</v>
@@ -2741,7 +2744,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C37" t="s">
         <v>240</v>
@@ -2782,7 +2785,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" t="s">
         <v>241</v>
@@ -2823,7 +2826,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s">
         <v>108</v>
@@ -2864,7 +2867,7 @@
         <v>49</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C40" t="s">
         <v>242</v>
@@ -2905,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C41" t="s">
         <v>243</v>
@@ -2946,7 +2949,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
         <v>109</v>
@@ -2987,10 +2990,10 @@
         <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>150</v>
@@ -3028,7 +3031,7 @@
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" t="s">
         <v>244</v>
@@ -3069,7 +3072,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C45" t="s">
         <v>245</v>
@@ -3113,7 +3116,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
         <v>110</v>
@@ -3157,10 +3160,10 @@
         <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>154</v>
@@ -3195,7 +3198,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C48" t="s">
         <v>111</v>
@@ -3239,7 +3242,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
         <v>112</v>
@@ -3280,7 +3283,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C50" t="s">
         <v>246</v>
@@ -3321,7 +3324,7 @@
         <v>60</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C51" t="s">
         <v>113</v>
@@ -3362,7 +3365,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s">
         <v>114</v>
@@ -3403,7 +3406,7 @@
         <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s">
         <v>247</v>
@@ -3447,7 +3450,7 @@
         <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C54" t="s">
         <v>115</v>
@@ -3491,7 +3494,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C55" t="s">
         <v>182</v>
@@ -3532,7 +3535,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" t="s">
         <v>181</v>
@@ -3573,7 +3576,7 @@
         <v>66</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" t="s">
         <v>164</v>
@@ -3614,7 +3617,7 @@
         <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>165</v>
@@ -3653,7 +3656,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>232</v>
@@ -3695,7 +3698,7 @@
         <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>232</v>
@@ -3737,7 +3740,7 @@
         <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C61" t="s">
         <v>168</v>
@@ -3779,7 +3782,7 @@
         <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C62" t="s">
         <v>169</v>
@@ -3820,7 +3823,7 @@
         <v>72</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
         <v>170</v>
@@ -3861,7 +3864,7 @@
         <v>73</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
         <v>171</v>
@@ -3902,7 +3905,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>233</v>
@@ -3943,7 +3946,7 @@
         <v>75</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
         <v>173</v>
@@ -3984,7 +3987,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s">
         <v>174</v>
@@ -4025,7 +4028,7 @@
         <v>77</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C68" t="s">
         <v>175</v>
@@ -4066,7 +4069,7 @@
         <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
         <v>176</v>
@@ -4107,7 +4110,7 @@
         <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
         <v>177</v>
@@ -4148,7 +4151,7 @@
         <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C71" t="s">
         <v>178</v>
@@ -4189,7 +4192,7 @@
         <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
         <v>179</v>
@@ -4231,7 +4234,7 @@
         <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C73" t="s">
         <v>180</v>
@@ -4275,7 +4278,7 @@
         <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>181</v>
@@ -4316,7 +4319,7 @@
         <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>182</v>
@@ -4357,7 +4360,7 @@
         <v>85</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
         <v>183</v>
@@ -4401,7 +4404,7 @@
         <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" t="s">
         <v>184</v>
@@ -4445,7 +4448,7 @@
         <v>87</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C78" t="s">
         <v>185</v>
@@ -4489,13 +4492,13 @@
         <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E79" s="1" t="e">
         <v>#N/A</v>
@@ -4504,16 +4507,16 @@
         <v>#N/A</v>
       </c>
       <c r="G79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="J79" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>200</v>
@@ -4530,238 +4533,202 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B81" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C81" t="s">
-        <v>186</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E81" s="1" t="e">
         <v>#N/A</v>
       </c>
       <c r="F81" s="1" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G81" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H81" s="1" t="e">
-        <v>#N/A</v>
+      <c r="G81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C82" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F82" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G82" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H82" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F83" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B84" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" t="s">
         <v>257</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E82" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F82" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="G84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J82" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B83" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C83" t="s">
-        <v>258</v>
-      </c>
-      <c r="D83" s="1" t="s">
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B85" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C84" t="s">
-        <v>187</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F84" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G84" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H84" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C85" t="s">
-        <v>188</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E85" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F85" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G85" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H85" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E86" s="1" t="e">
         <v>#N/A</v>
@@ -4795,49 +4762,137 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>84</v>
+      <c r="A87" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C87" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E87" s="1">
-        <v>4</v>
-      </c>
-      <c r="F87" s="1">
-        <v>6</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
+      </c>
+      <c r="E87" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F87" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G87" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H87" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>85</v>
+      <c r="A88" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C88" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F88" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G88" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H88" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>84</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E89" s="1">
+        <v>4</v>
+      </c>
+      <c r="F89" s="1">
+        <v>6</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>85</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
